--- a/excel_routes/route_ATZ_RUH_threats.xlsx
+++ b/excel_routes/route_ATZ_RUH_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-415</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>4762</v>
+        <v>8763</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7784</v>
+        <v>12206</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-3022</v>
+        <v>-3443</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>Nesma Airlines NE-162</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>4762</v>
+        <v>9220</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7784</v>
+        <v>12206</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-3022</v>
+        <v>-2986</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -636,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -646,26 +646,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-284</t>
+          <t>Air Arabia Egypt E5-415</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>8452</v>
+        <v>9423</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7784</v>
+        <v>12206</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>668</v>
+        <v>-2783</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -681,36 +681,36 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>04-FEB-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>SM-465</t>
+          <t>SM-463</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-415</t>
+          <t>EgyptAir MS-649</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>4762</v>
+        <v>10757</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7784</v>
+        <v>12206</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-3022</v>
+        <v>-1449</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -726,27 +726,27 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>04-FEB-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>SM-465</t>
+          <t>SM-463</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-649</t>
+          <t>EgyptAir MS-651</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>7155</v>
+        <v>10757</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>7784</v>
+        <v>12206</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-629</v>
+        <v>-1449</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>46</v>
@@ -771,36 +771,36 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>04-FEB-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>SM-465</t>
+          <t>SM-463</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-651</t>
+          <t>Air Arabia Egypt E5-415</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>7155</v>
+        <v>4762</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>7784</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-629</v>
+        <v>-3022</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>08-FEB-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-415</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>4362</v>
+        <v>4998</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>7129</v>
+        <v>7784</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-2767</v>
+        <v>-2786</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>08-FEB-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -871,26 +871,26 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>flynas XY-284</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>4362</v>
+        <v>8452</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>7129</v>
+        <v>7784</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-2767</v>
+        <v>668</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
@@ -906,12 +906,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>04-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>4291</v>
+        <v>4762</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>7784</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-3493</v>
+        <v>-3022</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -951,36 +951,36 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>04-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>EgyptAir MS-649</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>4291</v>
+        <v>7155</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>7784</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-3493</v>
+        <v>-629</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
@@ -996,27 +996,27 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>04-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-649</t>
+          <t>EgyptAir MS-651</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>6638</v>
+        <v>7155</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>7784</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-1146</v>
+        <v>-629</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>46</v>
@@ -1041,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1051,26 +1051,26 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-4040</t>
+          <t>Air Arabia Egypt E5-415</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>6726</v>
+        <v>4362</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>7784</v>
+        <v>7129</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-1058</v>
+        <v>-2767</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1096,26 +1096,26 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-284</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>8452</v>
+        <v>4362</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>7784</v>
+        <v>7129</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>668</v>
+        <v>-2767</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
@@ -1186,26 +1186,26 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-266</t>
+          <t>Saudia SV-4040</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>6285</v>
+        <v>6159</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>7784</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-1499</v>
+        <v>-1625</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
@@ -1231,26 +1231,26 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-288</t>
+          <t>EgyptAir MS-649</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>6285</v>
+        <v>7155</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>7784</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-1499</v>
+        <v>-629</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
@@ -1276,26 +1276,26 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-272</t>
+          <t>EgyptAir MS-651</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>6285</v>
+        <v>7155</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>7784</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-1499</v>
+        <v>-629</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
@@ -1311,36 +1311,36 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>11-FEB-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>SM-465</t>
+          <t>SM-463</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-264</t>
+          <t>Air Arabia Egypt E5-415</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>6285</v>
+        <v>4362</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>7784</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-1499</v>
+        <v>-3422</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
@@ -1356,36 +1356,36 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>11-FEB-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>SM-465</t>
+          <t>SM-463</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-649</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>7155</v>
+        <v>4362</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>7784</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-629</v>
+        <v>-3422</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
@@ -1401,36 +1401,36 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>11-FEB-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>SM-465</t>
+          <t>SM-463</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-651</t>
+          <t>Nesma Airlines NE-162</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>7155</v>
+        <v>4560</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>7784</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-629</v>
+        <v>-3224</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="inlineStr">
         <is>
@@ -1446,27 +1446,27 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>11-FEB-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>SM-465</t>
+          <t>SM-463</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-320</t>
+          <t>EgyptAir MS-649</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>7344</v>
+        <v>7255</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>7784</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-440</v>
+        <v>-529</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>46</v>
@@ -1491,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,26 +1501,26 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-415</t>
+          <t>EgyptAir MS-649</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>4362</v>
+        <v>6638</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>7784</v>
+        <v>7129</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-3422</v>
+        <v>-491</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
@@ -1536,36 +1536,36 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>Saudia SV-4040</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>4362</v>
+        <v>6159</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>7784</v>
+        <v>7129</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-3422</v>
+        <v>-970</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
@@ -1581,12 +1581,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>7255</v>
+        <v>6638</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>7784</v>
+        <v>7129</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-529</v>
+        <v>-491</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>46</v>
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,26 +1636,26 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-4040</t>
+          <t>flynas XY-284</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>6159</v>
+        <v>7822</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>7129</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-970</v>
+        <v>693</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,30 +1681,30 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-649</t>
+          <t>flyadeal F3-608</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>6638</v>
+        <v>6915</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>7129</v>
+        <v>16199</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-491</v>
+        <v>-9284</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1716,40 +1716,40 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>SM-465</t>
+          <t>SM-463</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-649</t>
+          <t>flyadeal F3-606</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>6638</v>
+        <v>6915</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>7129</v>
+        <v>16199</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-491</v>
+        <v>-9284</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J28" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,30 +1771,30 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-284</t>
+          <t>flyadeal F3-616</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>7822</v>
+        <v>7293</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>7129</v>
+        <v>16199</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>693</v>
+        <v>-8906</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
@@ -1816,30 +1816,30 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-608</t>
+          <t>Saudia SV-3450</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>6915</v>
+        <v>7419</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-9284</v>
+        <v>-8780</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J30" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
@@ -1861,26 +1861,26 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-606</t>
+          <t>flynas XY-272</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>6915</v>
+        <v>7671</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-9284</v>
+        <v>-8528</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
@@ -1906,26 +1906,26 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-612</t>
+          <t>flynas XY-264</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>7293</v>
+        <v>7671</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-8906</v>
+        <v>-8528</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
@@ -1951,26 +1951,26 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-616</t>
+          <t>flynas XY-270</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>7293</v>
+        <v>7671</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-8906</v>
+        <v>-8528</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
@@ -1996,26 +1996,26 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-272</t>
+          <t>flyadeal F3-612</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>7671</v>
+        <v>8049</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-8528</v>
+        <v>-8150</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
@@ -2041,26 +2041,26 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-264</t>
+          <t>Saudia SV-320</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>7671</v>
+        <v>8364</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-8528</v>
+        <v>-7835</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J35" s="4" t="inlineStr">
         <is>
@@ -2086,26 +2086,26 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-270</t>
+          <t>Saudia SV-310</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>7671</v>
+        <v>8364</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-8528</v>
+        <v>-7835</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-320</t>
+          <t>Saudia SV-312</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-310</t>
+          <t>Saudia SV-418</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
@@ -2221,26 +2221,26 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-418</t>
+          <t>flynas XY-266</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>8364</v>
+        <v>8553</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-7835</v>
+        <v>-7646</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-266</t>
+          <t>flynas XY-276</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-276</t>
+          <t>flynas XY-268</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-268</t>
+          <t>flynas XY-274</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
@@ -2401,30 +2401,30 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-274</t>
+          <t>EgyptAir MS-651</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>8553</v>
+        <v>9158</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-7646</v>
+        <v>-7041</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J43" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J43" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
@@ -2446,30 +2446,30 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-651</t>
+          <t>Saudia SV-4040</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>9158</v>
+        <v>9220</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-7041</v>
+        <v>-6979</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J44" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J44" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
@@ -2491,17 +2491,17 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-3450</t>
+          <t>EgyptAir MS-649</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>9195</v>
+        <v>10064</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-7004</v>
+        <v>-6135</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>46</v>
@@ -2536,26 +2536,26 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-4040</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>9220</v>
+        <v>10682</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-6979</v>
+        <v>-5517</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
@@ -2581,17 +2581,17 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-649</t>
+          <t>EgyptAir MS-647</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>10064</v>
+        <v>10883</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-6135</v>
+        <v>-5316</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>46</v>
@@ -2626,30 +2626,30 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-312</t>
+          <t>Nesma Airlines NE-162</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>10140</v>
+        <v>13566</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-6059</v>
+        <v>-2633</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J48" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -2671,30 +2671,30 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-151</t>
+          <t>flyadeal F3-606</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>10682</v>
+        <v>10316</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-5517</v>
+        <v>-5883</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>15</v>
+      </c>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -2716,30 +2716,30 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-647</t>
+          <t>flyadeal F3-612</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>10883</v>
+        <v>11324</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-5316</v>
+        <v>-4875</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J50" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
@@ -2751,7 +2751,7 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -2761,26 +2761,26 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-162</t>
+          <t>flyadeal F3-608</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>13566</v>
+        <v>11324</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>-2633</v>
+        <v>-4875</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
@@ -2806,17 +2806,17 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-606</t>
+          <t>flyadeal F3-616</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>10316</v>
+        <v>11324</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>-5883</v>
+        <v>-4875</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>15</v>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-612</t>
+          <t>flynas XY-276</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
@@ -2864,13 +2864,13 @@
         <v>-4875</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J53" s="3" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-608</t>
+          <t>flynas XY-268</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
@@ -2909,13 +2909,13 @@
         <v>-4875</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-616</t>
+          <t>flynas XY-264</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
@@ -2954,13 +2954,13 @@
         <v>-4875</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-276</t>
+          <t>flynas XY-274</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
@@ -3031,30 +3031,30 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-268</t>
+          <t>Saudia SV-3450</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>11324</v>
+        <v>12105</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>-4875</v>
+        <v>-4094</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J57" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J57" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K57" s="2" t="inlineStr">
@@ -3076,30 +3076,30 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-272</t>
+          <t>EgyptAir MS-651</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>11324</v>
+        <v>12256</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>-4875</v>
+        <v>-3943</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J58" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K58" s="2" t="inlineStr">
@@ -3121,30 +3121,30 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-264</t>
+          <t>flynas XY-284</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>11324</v>
+        <v>12861</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>-4875</v>
+        <v>-3338</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J59" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K59" s="2" t="inlineStr">
@@ -3166,26 +3166,26 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-274</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>11324</v>
+        <v>13340</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>-4875</v>
+        <v>-2859</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3" t="inlineStr">
         <is>
@@ -3211,26 +3211,26 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-270</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>11324</v>
+        <v>13566</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>-4875</v>
+        <v>-2633</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3" t="inlineStr">
         <is>
@@ -3256,30 +3256,30 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-3450</t>
+          <t>flynas XY-270</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>12105</v>
+        <v>13718</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>-4094</v>
+        <v>-2481</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J62" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K62" s="2" t="inlineStr">
@@ -3301,17 +3301,17 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-651</t>
+          <t>Saudia SV-320</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>12256</v>
+        <v>14133</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>-3943</v>
+        <v>-2066</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>46</v>
@@ -3322,9 +3322,9 @@
       <c r="I63" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J63" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J63" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K63" s="2" t="inlineStr">
@@ -3346,30 +3346,30 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-284</t>
+          <t>Saudia SV-310</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>12861</v>
+        <v>14133</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>-3338</v>
+        <v>-2066</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J64" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
@@ -3391,26 +3391,26 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-151</t>
+          <t>Saudia SV-312</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>13340</v>
+        <v>14133</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>-2859</v>
+        <v>-2066</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
@@ -3436,26 +3436,26 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-160</t>
+          <t>Saudia SV-418</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>13566</v>
+        <v>14133</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>-2633</v>
+        <v>-2066</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
@@ -3481,17 +3481,17 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-320</t>
+          <t>EgyptAir MS-649</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>14133</v>
+        <v>14184</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>-2066</v>
+        <v>-2015</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>46</v>
@@ -3526,17 +3526,17 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-310</t>
+          <t>EgyptAir MS-647</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>14133</v>
+        <v>15003</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>16199</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>-2066</v>
+        <v>-1196</v>
       </c>
       <c r="G68" s="2" t="n">
         <v>46</v>
@@ -3561,40 +3561,40 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>25-MAR-26</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-312</t>
+          <t>flyadeal F3-612</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>14133</v>
+        <v>12458</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>16199</v>
+        <v>23392</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>-2066</v>
+        <v>-10934</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J69" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K69" s="2" t="inlineStr">
@@ -3606,40 +3606,40 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>25-MAR-26</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-418</t>
+          <t>flyadeal F3-608</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>14133</v>
+        <v>12458</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>16199</v>
+        <v>23392</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>-2066</v>
+        <v>-10934</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J70" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J70" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K70" s="2" t="inlineStr">
@@ -3651,40 +3651,40 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>25-MAR-26</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-649</t>
+          <t>flyadeal F3-606</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>14184</v>
+        <v>12458</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>16199</v>
+        <v>23392</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>-2015</v>
+        <v>-10934</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J71" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J71" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K71" s="2" t="inlineStr">
@@ -3696,40 +3696,40 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>25-MAR-26</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-647</t>
+          <t>flyadeal F3-616</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>15003</v>
+        <v>12458</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>16199</v>
+        <v>23392</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>-1196</v>
+        <v>-10934</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J72" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J72" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K72" s="2" t="inlineStr">
@@ -3751,17 +3751,17 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-274</t>
+          <t>flynas XY-266</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>11324</v>
+        <v>12584</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>23392</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>-12068</v>
+        <v>-10808</v>
       </c>
       <c r="G73" s="2" t="n">
         <v>20</v>
@@ -3796,17 +3796,17 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-270</t>
+          <t>flynas XY-276</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>11324</v>
+        <v>12584</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>23392</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>-12068</v>
+        <v>-10808</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>20</v>
@@ -3841,26 +3841,26 @@
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-612</t>
+          <t>flynas XY-268</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>12458</v>
+        <v>12584</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>23392</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>-10934</v>
+        <v>-10808</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J75" s="5" t="inlineStr">
         <is>
@@ -3886,26 +3886,26 @@
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-608</t>
+          <t>flynas XY-272</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>12458</v>
+        <v>12584</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>23392</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>-10934</v>
+        <v>-10808</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J76" s="5" t="inlineStr">
         <is>
@@ -3931,26 +3931,26 @@
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-606</t>
+          <t>flynas XY-264</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>12458</v>
+        <v>12584</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>23392</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>-10934</v>
+        <v>-10808</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J77" s="5" t="inlineStr">
         <is>
@@ -3976,26 +3976,26 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-616</t>
+          <t>flynas XY-274</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>12458</v>
+        <v>12584</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>23392</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>-10934</v>
+        <v>-10808</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I78" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J78" s="5" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-268</t>
+          <t>flynas XY-270</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
@@ -4291,26 +4291,26 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-266</t>
+          <t>Air Arabia Egypt E5-415</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>14977</v>
+        <v>15354</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>23392</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>-8415</v>
+        <v>-8038</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H85" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J85" s="5" t="inlineStr">
         <is>
@@ -4336,26 +4336,26 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-276</t>
+          <t>Saudia SV-320</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>14977</v>
+        <v>16451</v>
       </c>
       <c r="E86" s="2" t="n">
         <v>23392</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>-8415</v>
+        <v>-6941</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I86" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J86" s="5" t="inlineStr">
         <is>
@@ -4381,26 +4381,26 @@
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-272</t>
+          <t>Saudia SV-312</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>14977</v>
+        <v>16451</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>23392</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>-8415</v>
+        <v>-6941</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I87" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J87" s="5" t="inlineStr">
         <is>
@@ -4426,26 +4426,26 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-264</t>
+          <t>Saudia SV-418</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>14977</v>
+        <v>16451</v>
       </c>
       <c r="E88" s="2" t="n">
         <v>23392</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>-8415</v>
+        <v>-6941</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H88" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I88" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J88" s="5" t="inlineStr">
         <is>
@@ -4471,26 +4471,26 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-415</t>
+          <t>Saudia SV-4040</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>15353</v>
+        <v>16451</v>
       </c>
       <c r="E89" s="2" t="n">
         <v>23392</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>-8039</v>
+        <v>-6941</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H89" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I89" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J89" s="5" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-320</t>
+          <t>EgyptAir MS-649</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
@@ -4561,17 +4561,17 @@
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-312</t>
+          <t>EgyptAir MS-647</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>16451</v>
+        <v>17270</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>23392</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>-6941</v>
+        <v>-6122</v>
       </c>
       <c r="G91" s="2" t="n">
         <v>46</v>
@@ -4606,348 +4606,33 @@
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-418</t>
+          <t>Nile Air NP-251</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>16451</v>
+        <v>18945</v>
       </c>
       <c r="E92" s="2" t="n">
         <v>23392</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>-6941</v>
+        <v>-4447</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I92" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J92" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J92" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K92" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="inlineStr">
-        <is>
-          <t>25-MAR-26</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>SM-465</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-4040</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="n">
-        <v>16451</v>
-      </c>
-      <c r="E93" s="2" t="n">
-        <v>23392</v>
-      </c>
-      <c r="F93" s="2" t="n">
-        <v>-6941</v>
-      </c>
-      <c r="G93" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H93" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I93" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J93" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="inlineStr">
-        <is>
-          <t>25-MAR-26</t>
-        </is>
-      </c>
-      <c r="B94" s="2" t="inlineStr">
-        <is>
-          <t>SM-465</t>
-        </is>
-      </c>
-      <c r="C94" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-649</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="n">
-        <v>16451</v>
-      </c>
-      <c r="E94" s="2" t="n">
-        <v>23392</v>
-      </c>
-      <c r="F94" s="2" t="n">
-        <v>-6941</v>
-      </c>
-      <c r="G94" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H94" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I94" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J94" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="inlineStr">
-        <is>
-          <t>25-MAR-26</t>
-        </is>
-      </c>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>SM-465</t>
-        </is>
-      </c>
-      <c r="C95" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-647</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="n">
-        <v>17270</v>
-      </c>
-      <c r="E95" s="2" t="n">
-        <v>23392</v>
-      </c>
-      <c r="F95" s="2" t="n">
-        <v>-6122</v>
-      </c>
-      <c r="G95" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H95" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I95" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J95" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="inlineStr">
-        <is>
-          <t>25-MAR-26</t>
-        </is>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>SM-465</t>
-        </is>
-      </c>
-      <c r="C96" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-251</t>
-        </is>
-      </c>
-      <c r="D96" s="2" t="n">
-        <v>18945</v>
-      </c>
-      <c r="E96" s="2" t="n">
-        <v>23392</v>
-      </c>
-      <c r="F96" s="2" t="n">
-        <v>-4447</v>
-      </c>
-      <c r="G96" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H96" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I96" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>01-APR-26</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>SM-465</t>
-        </is>
-      </c>
-      <c r="C97" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-320</t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="n">
-        <v>10140</v>
-      </c>
-      <c r="E97" s="2" t="n">
-        <v>10606</v>
-      </c>
-      <c r="F97" s="2" t="n">
-        <v>-466</v>
-      </c>
-      <c r="G97" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H97" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I97" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J97" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K97" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="inlineStr">
-        <is>
-          <t>01-APR-26</t>
-        </is>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>SM-465</t>
-        </is>
-      </c>
-      <c r="C98" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-310</t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>10140</v>
-      </c>
-      <c r="E98" s="2" t="n">
-        <v>10606</v>
-      </c>
-      <c r="F98" s="2" t="n">
-        <v>-466</v>
-      </c>
-      <c r="G98" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H98" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I98" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J98" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K98" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="inlineStr">
-        <is>
-          <t>01-APR-26</t>
-        </is>
-      </c>
-      <c r="B99" s="2" t="inlineStr">
-        <is>
-          <t>SM-465</t>
-        </is>
-      </c>
-      <c r="C99" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-418</t>
-        </is>
-      </c>
-      <c r="D99" s="2" t="n">
-        <v>10140</v>
-      </c>
-      <c r="E99" s="2" t="n">
-        <v>10606</v>
-      </c>
-      <c r="F99" s="2" t="n">
-        <v>-466</v>
-      </c>
-      <c r="G99" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H99" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I99" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J99" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K99" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_ATZ_RUH_threats.xlsx
+++ b/excel_routes/route_ATZ_RUH_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -48,20 +48,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4EDDA"/>
-        <bgColor rgb="00D4EDDA"/>
+        <fgColor rgb="00FFF3CD"/>
+        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8D7DA"/>
-        <bgColor rgb="00F8D7DA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
+        <fgColor rgb="00D4EDDA"/>
+        <bgColor rgb="00D4EDDA"/>
       </patternFill>
     </fill>
   </fills>
@@ -83,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -95,9 +89,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +473,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -546,40 +537,40 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-284</t>
+          <t>Nile Air NP-251</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>11568</v>
+        <v>10728</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>10564</v>
+        <v>16308</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1004</v>
+        <v>-5580</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
@@ -591,27 +582,27 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-415</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>5219</v>
+        <v>10994</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7750</v>
+        <v>16308</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-2531</v>
+        <v>-5314</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -624,7 +615,7 @@
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
@@ -636,38 +627,38 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>flynas XY-266</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>5219</v>
+        <v>11374</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7750</v>
+        <v>16308</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-2531</v>
+        <v>-4934</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -681,38 +672,38 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-284</t>
+          <t>flynas XY-268</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>9056</v>
+        <v>11374</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7750</v>
+        <v>16308</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1306</v>
+        <v>-4934</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -726,7 +717,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>04-FEB-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -736,28 +727,28 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-415</t>
+          <t>flynas XY-274</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>4984</v>
+        <v>11374</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>7750</v>
+        <v>16308</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-2766</v>
+        <v>-4934</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -771,38 +762,38 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>08-FEB-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-415</t>
+          <t>flynas XY-270</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>4351</v>
+        <v>11374</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>7097</v>
+        <v>16308</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-2746</v>
+        <v>-4934</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -816,38 +807,38 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>08-FEB-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>flyadeal F3-612</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>4351</v>
+        <v>11374</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>7097</v>
+        <v>16308</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-2746</v>
+        <v>-4934</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -861,38 +852,38 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-415</t>
+          <t>flyadeal F3-608</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>4280</v>
+        <v>11374</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>7750</v>
+        <v>16308</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-3470</v>
+        <v>-4934</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -906,38 +897,38 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>flyadeal F3-606</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>4280</v>
+        <v>11374</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>7750</v>
+        <v>16308</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-3470</v>
+        <v>-4934</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -951,38 +942,38 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-649</t>
+          <t>flyadeal F3-616</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>7122</v>
+        <v>11374</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>7750</v>
+        <v>16308</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-628</v>
+        <v>-4934</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -996,38 +987,38 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-284</t>
+          <t>Air Arabia Egypt E5-415</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>8428</v>
+        <v>11447</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>7750</v>
+        <v>16308</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>678</v>
+        <v>-4861</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1041,38 +1032,38 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-415</t>
+          <t>EgyptAir MS-649</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>4351</v>
+        <v>14423</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>7750</v>
+        <v>16308</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-3399</v>
+        <v>-1885</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1086,38 +1077,38 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>SM-463</t>
+          <t>SM-465</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-410</t>
+          <t>EgyptAir MS-647</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>4351</v>
+        <v>15245</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>7750</v>
+        <v>16308</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-3399</v>
+        <v>-1063</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1131,7 +1122,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1141,28 +1132,28 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-649</t>
+          <t>Nesma Airlines NE-162</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>7222</v>
+        <v>7970</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>7750</v>
+        <v>10665</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-528</v>
+        <v>-2695</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1176,7 +1167,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1186,28 +1177,28 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-649</t>
+          <t>flynas XY-284</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>6607</v>
+        <v>9881</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>7097</v>
+        <v>8653</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-490</v>
+        <v>1228</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1221,7 +1212,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1231,28 +1222,28 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-284</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>7172</v>
+        <v>4617</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>7097</v>
+        <v>7161</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>75</v>
+        <v>-2544</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1266,7 +1257,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,28 +1267,28 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-284</t>
+          <t>Air Arabia Egypt E5-415</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>7800</v>
+        <v>4381</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>7097</v>
+        <v>7831</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>703</v>
+        <v>-3450</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1311,7 +1302,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1321,30 +1312,30 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-3450</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>7398</v>
+        <v>4381</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>16128</v>
+        <v>7831</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-8730</v>
+        <v>-3450</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1356,7 +1347,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1366,30 +1357,30 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-310</t>
+          <t>EgyptAir MS-649</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>8340</v>
+        <v>6895</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>16128</v>
+        <v>7161</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-7788</v>
+        <v>-266</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1401,7 +1392,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1411,30 +1402,30 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-312</t>
+          <t>flynas XY-284</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>8340</v>
+        <v>7856</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>16128</v>
+        <v>7161</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-7788</v>
+        <v>695</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1446,7 +1437,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1456,30 +1447,30 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-651</t>
+          <t>Air Arabia Egypt E5-415</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>9119</v>
+        <v>5255</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>16128</v>
+        <v>7831</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-7009</v>
+        <v>-2576</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1491,7 +1482,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,30 +1492,30 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-649</t>
+          <t>Air Arabia Egypt E5-410</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>10024</v>
+        <v>5255</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>16128</v>
+        <v>7831</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-6104</v>
+        <v>-2576</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1536,7 +1527,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,30 +1537,30 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-320</t>
+          <t>flynas XY-266</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>10111</v>
+        <v>6566</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>16128</v>
+        <v>7831</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-6017</v>
+        <v>-1265</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -1581,7 +1572,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1591,30 +1582,30 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-418</t>
+          <t>flynas XY-276</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>10111</v>
+        <v>6566</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>16128</v>
+        <v>7831</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-6017</v>
+        <v>-1265</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1626,7 +1617,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,30 +1627,30 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-151</t>
+          <t>flynas XY-268</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>10626</v>
+        <v>6566</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>16128</v>
+        <v>7831</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-5502</v>
+        <v>-1265</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -1671,7 +1662,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,30 +1672,30 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-647</t>
+          <t>flynas XY-272</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>10840</v>
+        <v>6566</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>16128</v>
+        <v>7831</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-5288</v>
+        <v>-1265</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J27" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1716,7 +1707,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1726,28 +1717,28 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-162</t>
+          <t>flynas XY-264</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>13503</v>
+        <v>6566</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>16128</v>
+        <v>7831</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-2625</v>
+        <v>-1265</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J28" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1761,7 +1752,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,28 +1762,28 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-264</t>
+          <t>flynas XY-270</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>10287</v>
+        <v>6566</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>16128</v>
+        <v>7831</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-5841</v>
+        <v>-1265</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1806,7 +1797,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1820,24 +1811,24 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>10677</v>
+        <v>7224</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>16128</v>
+        <v>7831</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-5451</v>
+        <v>-607</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="J30" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J30" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1851,7 +1842,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1861,17 +1852,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-612</t>
+          <t>flyadeal F3-606</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>11292</v>
+        <v>7325</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-4836</v>
+        <v>-6288</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>15</v>
@@ -1882,7 +1873,7 @@
       <c r="I31" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="J31" s="3" t="inlineStr">
+      <c r="J31" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1896,7 +1887,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1906,28 +1897,28 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-608</t>
+          <t>flynas XY-266</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>11292</v>
+        <v>7705</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-4836</v>
+        <v>-5908</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J32" s="3" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="J32" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1941,7 +1932,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1951,28 +1942,28 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-606</t>
+          <t>flynas XY-276</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>11292</v>
+        <v>7705</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-4836</v>
+        <v>-5908</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J33" s="3" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1986,7 +1977,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1996,28 +1987,28 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-616</t>
+          <t>flynas XY-268</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>11292</v>
+        <v>7705</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-4836</v>
+        <v>-5908</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J34" s="3" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2031,7 +2022,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -2041,17 +2032,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-270</t>
+          <t>flynas XY-272</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>11292</v>
+        <v>7705</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-4836</v>
+        <v>-5908</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>20</v>
@@ -2062,7 +2053,7 @@
       <c r="I35" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J35" s="3" t="inlineStr">
+      <c r="J35" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2076,7 +2067,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2086,30 +2077,30 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-3450</t>
+          <t>flynas XY-264</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>12071</v>
+        <v>7705</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-4057</v>
+        <v>-5908</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J36" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J36" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
@@ -2121,7 +2112,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2131,30 +2122,30 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-651</t>
+          <t>flynas XY-274</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>12209</v>
+        <v>7705</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-3919</v>
+        <v>-5908</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J37" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J37" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
@@ -2166,7 +2157,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2176,28 +2167,28 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-151</t>
+          <t>flynas XY-270</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>13302</v>
+        <v>7705</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-2826</v>
+        <v>-5908</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="J38" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2211,7 +2202,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2221,28 +2212,28 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-160</t>
+          <t>flyadeal F3-616</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>13503</v>
+        <v>8084</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-2625</v>
+        <v>-5529</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="J39" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2256,7 +2247,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -2266,28 +2257,28 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-276</t>
+          <t>Saudia SV-320</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>13679</v>
+        <v>8400</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-2449</v>
+        <v>-5213</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J40" s="3" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="J40" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2301,7 +2292,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -2311,28 +2302,28 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-268</t>
+          <t>Saudia SV-310</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>13679</v>
+        <v>8400</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-2449</v>
+        <v>-5213</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J41" s="3" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="J41" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2346,7 +2337,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2356,28 +2347,28 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-272</t>
+          <t>Saudia SV-312</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>13679</v>
+        <v>8400</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-2449</v>
+        <v>-5213</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J42" s="3" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="J42" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2391,7 +2382,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -2401,28 +2392,28 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-274</t>
+          <t>Saudia SV-418</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>13679</v>
+        <v>8400</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-2449</v>
+        <v>-5213</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J43" s="3" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="J43" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2436,7 +2427,7 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -2446,28 +2437,28 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-320</t>
+          <t>flyadeal F3-608</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>14093</v>
+        <v>8843</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-2035</v>
+        <v>-4770</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J44" s="3" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="J44" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2481,7 +2472,7 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -2491,17 +2482,17 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-310</t>
+          <t>EgyptAir MS-649</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>14093</v>
+        <v>10349</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-2035</v>
+        <v>-3264</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>46</v>
@@ -2514,7 +2505,7 @@
       </c>
       <c r="J45" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
@@ -2526,7 +2517,7 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -2536,17 +2527,17 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-312</t>
+          <t>EgyptAir MS-651</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>14093</v>
+        <v>10349</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-2035</v>
+        <v>-3264</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>46</v>
@@ -2559,7 +2550,7 @@
       </c>
       <c r="J46" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
@@ -2571,7 +2562,7 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -2581,28 +2572,28 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-418</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>14093</v>
+        <v>10728</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-2035</v>
+        <v>-2885</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J47" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2616,7 +2607,7 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -2626,17 +2617,17 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-649</t>
+          <t>EgyptAir MS-647</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>14131</v>
+        <v>11171</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-1997</v>
+        <v>-2442</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>46</v>
@@ -2647,7 +2638,7 @@
       <c r="I48" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J48" s="3" t="inlineStr">
+      <c r="J48" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2671,17 +2662,17 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-647</t>
+          <t>EgyptAir MS-651</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>14935</v>
+        <v>12563</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-1193</v>
+        <v>-1050</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>46</v>
@@ -2692,7 +2683,7 @@
       <c r="I49" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J49" s="3" t="inlineStr">
+      <c r="J49" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2716,17 +2707,17 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-266</t>
+          <t>flynas XY-284</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>14935</v>
+        <v>12917</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>16128</v>
+        <v>13613</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-1193</v>
+        <v>-696</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>40</v>
@@ -2737,7 +2728,7 @@
       <c r="I50" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J50" s="3" t="inlineStr">
+      <c r="J50" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2761,28 +2752,28 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-268</t>
+          <t>flyadeal F3-608</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>11292</v>
+        <v>12512</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>16128</v>
+        <v>18244</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>-4836</v>
+        <v>-5732</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J51" s="3" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="J51" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2806,28 +2797,28 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-264</t>
+          <t>flyadeal F3-606</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>11292</v>
+        <v>12512</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>16128</v>
+        <v>18244</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>-4836</v>
+        <v>-5732</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J52" s="3" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="J52" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2851,28 +2842,28 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-274</t>
+          <t>flyadeal F3-616</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>11292</v>
+        <v>12512</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>16128</v>
+        <v>18244</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>-4836</v>
+        <v>-5732</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" s="3" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="J53" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2896,28 +2887,28 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-270</t>
+          <t>Nile Air NP-151</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>11292</v>
+        <v>13423</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>16128</v>
+        <v>18244</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>-4836</v>
+        <v>-4821</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J54" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2941,17 +2932,17 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-151</t>
+          <t>Nesma Airlines NE-160</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>13302</v>
+        <v>13651</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>16128</v>
+        <v>18244</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>-2826</v>
+        <v>-4593</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>30</v>
@@ -2962,7 +2953,7 @@
       <c r="I55" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J55" s="3" t="inlineStr">
+      <c r="J55" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2986,30 +2977,30 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-160</t>
+          <t>flynas XY-272</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>13503</v>
+        <v>13778</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>16128</v>
+        <v>18244</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>-2625</v>
+        <v>-4466</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K56" s="2" t="inlineStr">
@@ -3031,30 +3022,30 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-310</t>
+          <t>flynas XY-264</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>14093</v>
+        <v>13778</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>16128</v>
+        <v>18244</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>-2035</v>
+        <v>-4466</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J57" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K57" s="2" t="inlineStr">
@@ -3076,30 +3067,30 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-3450</t>
+          <t>flynas XY-274</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>14093</v>
+        <v>13778</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>16128</v>
+        <v>18244</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>-2035</v>
+        <v>-4466</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K58" s="2" t="inlineStr">
@@ -3121,30 +3112,30 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-651</t>
+          <t>flynas XY-270</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>14131</v>
+        <v>13778</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>16128</v>
+        <v>18244</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>-1997</v>
+        <v>-4466</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K59" s="2" t="inlineStr">
@@ -3156,7 +3147,7 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>13-MAY-26</t>
+          <t>25-MAR-26</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -3170,13 +3161,13 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>7084</v>
+        <v>14499</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>7750</v>
+        <v>18244</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>-666</v>
+        <v>-3745</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>46</v>
@@ -3189,7 +3180,7 @@
       </c>
       <c r="J60" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K60" s="2" t="inlineStr">
@@ -3201,7 +3192,7 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>25-MAR-26</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -3211,17 +3202,17 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-651</t>
+          <t>Saudia SV-310</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>7084</v>
+        <v>14549</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>7750</v>
+        <v>18244</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>-666</v>
+        <v>-3695</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>46</v>
@@ -3234,10 +3225,910 @@
       </c>
       <c r="J61" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>25-MAR-26</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-266</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>15043</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>18244</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>-3201</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J62" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>25-MAR-26</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-276</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>15043</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>18244</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>-3201</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J63" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>25-MAR-26</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-268</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>15043</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>18244</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>-3201</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J64" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>25-MAR-26</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-415</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>15418</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>18244</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>-2826</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>25-MAR-26</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>16789</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>18244</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>-1455</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J66" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>25-MAR-26</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-320</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>16877</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>18244</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>-1367</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J67" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>25-MAR-26</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>17611</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>18244</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>-633</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J68" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>01-APR-26</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-320</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>8400</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>13891</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>-5491</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J69" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>01-APR-26</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-310</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>9261</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>13891</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>-4630</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J70" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>01-APR-26</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-312</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>9261</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>13891</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>-4630</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I71" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J71" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>01-APR-26</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-418</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>11032</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>13891</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>-2859</v>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I72" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J72" s="3" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>01-APR-26</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>11272</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>13891</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>-2619</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I73" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J73" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>01-APR-26</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>11272</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>13891</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>-2619</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J74" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>01-APR-26</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-647</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>12095</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>13891</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>-1796</v>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I75" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J75" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>08-APR-26</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-320</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>7186</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>7831</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>-645</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J76" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>08-APR-26</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-310</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>7186</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>7831</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>-645</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J77" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>08-APR-26</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-649</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>7376</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>7831</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>-455</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J78" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>08-APR-26</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>7376</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>7831</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>-455</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J79" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>13-MAY-26</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>7376</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>7831</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>-455</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J80" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>20-MAY-26</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>SM-465</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-651</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>7376</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>7831</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>-455</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J81" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_ATZ_RUH_threats.xlsx
+++ b/excel_routes/route_ATZ_RUH_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDEAB20-34D5-4CDC-B86E-C2C3905B0B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667309B5-1B1A-4860-B036-698A20759274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -66,55 +66,97 @@
     <t>SM-463</t>
   </si>
   <si>
+    <t>Air Arabia Egypt E5-410</t>
+  </si>
+  <si>
+    <t>LOW THREAT</t>
+  </si>
+  <si>
+    <t>EGP</t>
+  </si>
+  <si>
+    <t>Nile Air NP-151</t>
+  </si>
+  <si>
     <t>Nesma Airlines NE-162</t>
   </si>
   <si>
-    <t>LOW THREAT</t>
-  </si>
-  <si>
-    <t>EGP</t>
-  </si>
-  <si>
-    <t>Air Arabia Egypt E5-410</t>
-  </si>
-  <si>
-    <t>Nile Air NP-151</t>
-  </si>
-  <si>
-    <t>10-FEB-26</t>
-  </si>
-  <si>
-    <t>Air Arabia Egypt E5-415</t>
-  </si>
-  <si>
     <t>EgyptAir MS-649</t>
   </si>
   <si>
     <t>EgyptAir MS-651</t>
   </si>
   <si>
-    <t>11-FEB-26</t>
+    <t>22-MAR-26</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-647</t>
+  </si>
+  <si>
+    <t>Saudia SV-320</t>
+  </si>
+  <si>
+    <t>24-MAR-26</t>
+  </si>
+  <si>
+    <t>flynas XY-284</t>
+  </si>
+  <si>
+    <t>01-APR-26</t>
   </si>
   <si>
     <t>SM-465</t>
   </si>
   <si>
-    <t>EgyptAir MS-647</t>
-  </si>
-  <si>
-    <t>15-FEB-26</t>
-  </si>
-  <si>
-    <t>17-FEB-26</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-360</t>
-  </si>
-  <si>
-    <t>18-FEB-26</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-362</t>
+    <t>Saudia SV-310</t>
+  </si>
+  <si>
+    <t>Saudia SV-312</t>
+  </si>
+  <si>
+    <t>Saudia SV-418</t>
+  </si>
+  <si>
+    <t>08-APR-26</t>
+  </si>
+  <si>
+    <t>flyadeal F3-608</t>
+  </si>
+  <si>
+    <t>flyadeal F3-606</t>
+  </si>
+  <si>
+    <t>flyadeal F3-616</t>
+  </si>
+  <si>
+    <t>flyadeal F3-614</t>
+  </si>
+  <si>
+    <t>flynas XY-266</t>
+  </si>
+  <si>
+    <t>flynas XY-268</t>
+  </si>
+  <si>
+    <t>flynas XY-272</t>
+  </si>
+  <si>
+    <t>flynas XY-264</t>
+  </si>
+  <si>
+    <t>flynas XY-274</t>
+  </si>
+  <si>
+    <t>flynas XY-270</t>
+  </si>
+  <si>
+    <t>22-APR-26</t>
+  </si>
+  <si>
+    <t>13-MAY-26</t>
+  </si>
+  <si>
+    <t>20-MAY-26</t>
   </si>
 </sst>
 </file>
@@ -502,7 +544,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -566,13 +608,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>5582</v>
+        <v>5283</v>
       </c>
       <c r="E2" s="2">
-        <v>8599</v>
+        <v>8604</v>
       </c>
       <c r="F2" s="2">
-        <v>-3017</v>
+        <v>-3321</v>
       </c>
       <c r="G2" s="2">
         <v>30</v>
@@ -601,13 +643,13 @@
         <v>16</v>
       </c>
       <c r="D3" s="2">
-        <v>5910</v>
+        <v>5569</v>
       </c>
       <c r="E3" s="2">
-        <v>8599</v>
+        <v>8604</v>
       </c>
       <c r="F3" s="2">
-        <v>-2689</v>
+        <v>-3035</v>
       </c>
       <c r="G3" s="2">
         <v>30</v>
@@ -636,13 +678,13 @@
         <v>17</v>
       </c>
       <c r="D4" s="2">
-        <v>5997</v>
+        <v>5594</v>
       </c>
       <c r="E4" s="2">
-        <v>8599</v>
+        <v>8604</v>
       </c>
       <c r="F4" s="2">
-        <v>-2602</v>
+        <v>-3010</v>
       </c>
       <c r="G4" s="2">
         <v>30</v>
@@ -662,31 +704,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>4994</v>
+        <v>7363</v>
       </c>
       <c r="E5" s="2">
-        <v>7782</v>
+        <v>8604</v>
       </c>
       <c r="F5" s="2">
-        <v>-2788</v>
+        <v>-1241</v>
       </c>
       <c r="G5" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2">
         <v>30</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>14</v>
@@ -697,22 +739,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
-        <v>6851</v>
+        <v>7363</v>
       </c>
       <c r="E6" s="2">
-        <v>7782</v>
+        <v>8604</v>
       </c>
       <c r="F6" s="2">
-        <v>-931</v>
+        <v>-1241</v>
       </c>
       <c r="G6" s="2">
         <v>46</v>
@@ -732,22 +774,22 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
-        <v>7367</v>
+        <v>10285</v>
       </c>
       <c r="E7" s="2">
-        <v>7782</v>
+        <v>11690</v>
       </c>
       <c r="F7" s="2">
-        <v>-415</v>
+        <v>-1405</v>
       </c>
       <c r="G7" s="2">
         <v>46</v>
@@ -767,31 +809,31 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
-        <v>4994</v>
+        <v>11101</v>
       </c>
       <c r="E8" s="2">
-        <v>7782</v>
+        <v>11690</v>
       </c>
       <c r="F8" s="2">
-        <v>-2788</v>
+        <v>-589</v>
       </c>
       <c r="G8" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2">
         <v>30</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>14</v>
@@ -802,22 +844,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>7367</v>
+        <v>11201</v>
       </c>
       <c r="E9" s="2">
-        <v>7782</v>
+        <v>11690</v>
       </c>
       <c r="F9" s="2">
-        <v>-415</v>
+        <v>-489</v>
       </c>
       <c r="G9" s="2">
         <v>46</v>
@@ -837,22 +879,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" s="2">
-        <v>7467</v>
+        <v>11502</v>
       </c>
       <c r="E10" s="2">
-        <v>7782</v>
+        <v>11690</v>
       </c>
       <c r="F10" s="2">
-        <v>-315</v>
+        <v>-188</v>
       </c>
       <c r="G10" s="2">
         <v>46</v>
@@ -872,31 +914,31 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2">
-        <v>4359</v>
+        <v>12806</v>
       </c>
       <c r="E11" s="2">
-        <v>7782</v>
+        <v>11690</v>
       </c>
       <c r="F11" s="2">
-        <v>-3423</v>
+        <v>1116</v>
       </c>
       <c r="G11" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2">
         <v>30</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>14</v>
@@ -910,28 +952,28 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2">
-        <v>4594</v>
+        <v>8328</v>
       </c>
       <c r="E12" s="2">
-        <v>7782</v>
+        <v>13823</v>
       </c>
       <c r="F12" s="2">
-        <v>-3188</v>
+        <v>-5495</v>
       </c>
       <c r="G12" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H12" s="2">
         <v>30</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>14</v>
@@ -945,28 +987,28 @@
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>6851</v>
+        <v>8328</v>
       </c>
       <c r="E13" s="2">
-        <v>7782</v>
+        <v>13823</v>
       </c>
       <c r="F13" s="2">
-        <v>-931</v>
+        <v>-5495</v>
       </c>
       <c r="G13" s="2">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H13" s="2">
         <v>30</v>
       </c>
       <c r="I13" s="2">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>14</v>
@@ -980,28 +1022,28 @@
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
-        <v>7467</v>
+        <v>9181</v>
       </c>
       <c r="E14" s="2">
-        <v>7782</v>
+        <v>13823</v>
       </c>
       <c r="F14" s="2">
-        <v>-315</v>
+        <v>-4642</v>
       </c>
       <c r="G14" s="2">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H14" s="2">
         <v>30</v>
       </c>
       <c r="I14" s="2">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>14</v>
@@ -1012,31 +1054,31 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
-        <v>6034</v>
+        <v>9181</v>
       </c>
       <c r="E15" s="2">
-        <v>6525</v>
+        <v>13823</v>
       </c>
       <c r="F15" s="2">
-        <v>-491</v>
+        <v>-4642</v>
       </c>
       <c r="G15" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H15" s="2">
         <v>30</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>14</v>
@@ -1047,36 +1089,701 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2">
-        <v>5041</v>
+        <v>11201</v>
       </c>
       <c r="E16" s="2">
-        <v>5104</v>
+        <v>13823</v>
       </c>
       <c r="F16" s="2">
-        <v>-63</v>
+        <v>-2622</v>
       </c>
       <c r="G16" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H16" s="2">
         <v>30</v>
       </c>
       <c r="I16" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2">
+        <v>11201</v>
+      </c>
+      <c r="E17" s="2">
+        <v>13823</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-2622</v>
+      </c>
+      <c r="G17" s="2">
+        <v>46</v>
+      </c>
+      <c r="H17" s="2">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2">
+        <v>13296</v>
+      </c>
+      <c r="E18" s="2">
+        <v>13823</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-527</v>
+      </c>
+      <c r="G18" s="2">
+        <v>46</v>
+      </c>
+      <c r="H18" s="2">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3750</v>
+      </c>
+      <c r="E19" s="2">
+        <v>8604</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-4854</v>
+      </c>
+      <c r="G19" s="2">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3750</v>
+      </c>
+      <c r="E20" s="2">
+        <v>8604</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-4854</v>
+      </c>
+      <c r="G20" s="2">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2">
+        <v>15</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3750</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8604</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-4854</v>
+      </c>
+      <c r="G21" s="2">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2">
+        <v>15</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3750</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8604</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-4854</v>
+      </c>
+      <c r="G22" s="2">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2">
+        <v>15</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4377</v>
+      </c>
+      <c r="E23" s="2">
+        <v>8604</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-4227</v>
+      </c>
+      <c r="G23" s="2">
+        <v>20</v>
+      </c>
+      <c r="H23" s="2">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2">
+        <v>10</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4377</v>
+      </c>
+      <c r="E24" s="2">
+        <v>8604</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-4227</v>
+      </c>
+      <c r="G24" s="2">
+        <v>20</v>
+      </c>
+      <c r="H24" s="2">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2">
+        <v>10</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4377</v>
+      </c>
+      <c r="E25" s="2">
+        <v>8604</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-4227</v>
+      </c>
+      <c r="G25" s="2">
+        <v>20</v>
+      </c>
+      <c r="H25" s="2">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2">
+        <v>10</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4377</v>
+      </c>
+      <c r="E26" s="2">
+        <v>8604</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-4227</v>
+      </c>
+      <c r="G26" s="2">
+        <v>20</v>
+      </c>
+      <c r="H26" s="2">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2">
+        <v>10</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4377</v>
+      </c>
+      <c r="E27" s="2">
+        <v>8604</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-4227</v>
+      </c>
+      <c r="G27" s="2">
+        <v>20</v>
+      </c>
+      <c r="H27" s="2">
+        <v>30</v>
+      </c>
+      <c r="I27" s="2">
+        <v>10</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4377</v>
+      </c>
+      <c r="E28" s="2">
+        <v>8604</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-4227</v>
+      </c>
+      <c r="G28" s="2">
+        <v>20</v>
+      </c>
+      <c r="H28" s="2">
+        <v>30</v>
+      </c>
+      <c r="I28" s="2">
+        <v>10</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2">
+        <v>7325</v>
+      </c>
+      <c r="E29" s="2">
+        <v>8604</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-1279</v>
+      </c>
+      <c r="G29" s="2">
+        <v>46</v>
+      </c>
+      <c r="H29" s="2">
+        <v>30</v>
+      </c>
+      <c r="I29" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2">
+        <v>7325</v>
+      </c>
+      <c r="E30" s="2">
+        <v>8604</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-1279</v>
+      </c>
+      <c r="G30" s="2">
+        <v>46</v>
+      </c>
+      <c r="H30" s="2">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="2">
+        <v>7425</v>
+      </c>
+      <c r="E31" s="2">
+        <v>8604</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-1179</v>
+      </c>
+      <c r="G31" s="2">
+        <v>46</v>
+      </c>
+      <c r="H31" s="2">
+        <v>30</v>
+      </c>
+      <c r="I31" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4275</v>
+      </c>
+      <c r="E32" s="2">
+        <v>7124</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-2849</v>
+      </c>
+      <c r="G32" s="2">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2">
+        <v>7325</v>
+      </c>
+      <c r="E33" s="2">
+        <v>7789</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-464</v>
+      </c>
+      <c r="G33" s="2">
+        <v>46</v>
+      </c>
+      <c r="H33" s="2">
+        <v>30</v>
+      </c>
+      <c r="I33" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4275</v>
+      </c>
+      <c r="E34" s="2">
+        <v>7789</v>
+      </c>
+      <c r="F34" s="2">
+        <v>-3514</v>
+      </c>
+      <c r="G34" s="2">
+        <v>30</v>
+      </c>
+      <c r="H34" s="2">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2">
+        <v>7325</v>
+      </c>
+      <c r="E35" s="2">
+        <v>7789</v>
+      </c>
+      <c r="F35" s="2">
+        <v>-464</v>
+      </c>
+      <c r="G35" s="2">
+        <v>46</v>
+      </c>
+      <c r="H35" s="2">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>15</v>
       </c>
     </row>
